--- a/experiments/ac.xlsx
+++ b/experiments/ac.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
   <si>
     <t>pix_per_cell</t>
   </si>
@@ -147,6 +147,51 @@
   </si>
   <si>
     <t>0.9656</t>
+  </si>
+  <si>
+    <t>ac_small</t>
+  </si>
+  <si>
+    <t>pr</t>
+  </si>
+  <si>
+    <t>re</t>
+  </si>
+  <si>
+    <t>0.9257</t>
+  </si>
+  <si>
+    <t>0.9259</t>
+  </si>
+  <si>
+    <t>0.9505</t>
+  </si>
+  <si>
+    <t>0.9508</t>
+  </si>
+  <si>
+    <t>0.9511</t>
+  </si>
+  <si>
+    <t>0.9662</t>
+  </si>
+  <si>
+    <t>0.9664</t>
+  </si>
+  <si>
+    <t>0.9663</t>
+  </si>
+  <si>
+    <t>0.9513</t>
+  </si>
+  <si>
+    <t>0.9517</t>
+  </si>
+  <si>
+    <t>0.9519</t>
+  </si>
+  <si>
+    <t>0.9634</t>
   </si>
 </sst>
 </file>
@@ -528,22 +573,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A7"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -557,31 +602,40 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>1</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>2</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -597,109 +651,145 @@
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2">
+      <c r="G2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2">
         <v>5292</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="3">
+      <c r="N2" s="3">
         <v>8</v>
       </c>
-      <c r="M2" s="3">
+      <c r="O2" s="3">
         <v>2</v>
       </c>
-      <c r="N2" s="3">
+      <c r="P2" s="3">
         <v>9</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="S2" s="3">
         <v>5292</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="L3">
+      <c r="G3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3">
         <v>4</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="S3" s="1">
         <v>24300</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="L4">
+      <c r="G4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4">
         <v>16</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>972</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="L5">
+      <c r="G5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5">
         <v>8</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>3</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>8748</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="L6">
+      <c r="G6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="N6">
         <v>8</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>1</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>1728</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -711,37 +801,39 @@
         <v>16</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="L7">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="N7">
         <v>8</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>2</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>10</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="S7" s="1">
         <v>5880</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L8">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N8">
         <v>8</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>2</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="S8" s="1">
         <v>6468</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -749,11 +841,13 @@
         <v>18</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="1">
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="1">
         <v>1764</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -761,8 +855,10 @@
         <v>20</v>
       </c>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -770,26 +866,28 @@
         <v>22</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="K11" t="s">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="M11" t="s">
         <v>34</v>
       </c>
-      <c r="L11" t="s">
+      <c r="N11" t="s">
         <v>6</v>
       </c>
-      <c r="M11" t="s">
+      <c r="O11" t="s">
         <v>7</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>37</v>
       </c>
-      <c r="P11" t="s">
+      <c r="R11" t="s">
         <v>6</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="S11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -797,26 +895,28 @@
         <v>24</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="K12">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="M12">
         <v>2</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M12" s="1">
+      <c r="O12" s="1">
         <v>5304</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>2</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="S12" s="1">
         <v>5298</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -824,26 +924,28 @@
         <v>5</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="K13">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="M13">
         <v>4</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M13" s="1">
+      <c r="O13" s="1">
         <v>5340</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>4</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="R13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="S13" s="1">
         <v>5304</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -851,46 +953,48 @@
         <v>27</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="K14">
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="M14">
         <v>8</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M14" s="1">
+      <c r="O14" s="1">
         <v>5484</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>8</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="R14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="S14" s="1">
         <v>5316</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K15">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M15">
         <v>16</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M15" s="1">
+      <c r="O15" s="1">
         <v>6060</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>16</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="R15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="S15" s="1">
         <v>5340</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -898,51 +1002,53 @@
         <v>29</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16">
         <v>3528</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>32</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M16" s="1">
+      <c r="O16" s="1">
         <v>8364</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>32</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="R16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="S16" s="1">
         <v>5388</v>
       </c>
     </row>
-    <row r="17" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="1">
+      <c r="J17" s="1">
         <v>3528</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>64</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M17" s="1">
+      <c r="O17" s="1">
         <v>17580</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>64</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="R17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="S17" s="1">
         <v>5484</v>
       </c>
     </row>

--- a/experiments/ac.xlsx
+++ b/experiments/ac.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>pix_per_cell</t>
   </si>
@@ -86,29 +86,32 @@
     <t>0.9876</t>
   </si>
   <si>
-    <t>0.9544</t>
-  </si>
-  <si>
-    <t>0.9752</t>
-  </si>
-  <si>
-    <t>0.9786</t>
-  </si>
-  <si>
-    <t>0.9685</t>
-  </si>
-  <si>
-    <t>0.9803</t>
-  </si>
-  <si>
-    <t>0.9797</t>
+    <t>0.9916</t>
+  </si>
+  <si>
+    <t>0.9932</t>
+  </si>
+  <si>
+    <t>0.991</t>
+  </si>
+  <si>
+    <t>0.9882</t>
+  </si>
+  <si>
+    <t>0.987</t>
+  </si>
+  <si>
+    <t>0.9859</t>
+  </si>
+  <si>
+    <t>0.9831</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,13 +133,34 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -151,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -161,6 +185,14 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -480,7 +512,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,71 +579,132 @@
       <c r="H2" s="3">
         <v>8460</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="1">
-        <v>4764</v>
-      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B3" s="2">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2">
+        <v>32</v>
+      </c>
       <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="I3" s="1"/>
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B4" s="2">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2">
+        <v>32</v>
+      </c>
+      <c r="F4" s="2">
+        <v>32</v>
+      </c>
       <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="I4" s="1"/>
       <c r="P4" s="3"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B5" s="2">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2">
+        <v>32</v>
+      </c>
       <c r="G5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="I5" s="1"/>
       <c r="P5" s="3"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B6" s="2">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2">
+        <v>32</v>
+      </c>
       <c r="G6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="I6" s="1"/>
       <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="B7" s="8">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8">
+        <v>2</v>
+      </c>
+      <c r="D7" s="8">
+        <v>9</v>
+      </c>
+      <c r="E7" s="8">
+        <v>32</v>
+      </c>
+      <c r="F7" s="8">
+        <v>32</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="I7" s="1"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
@@ -654,54 +747,123 @@
         <v>2</v>
       </c>
       <c r="C11" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E11" s="2">
-        <v>4</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="1">
-        <v>4764</v>
+        <v>32</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="3">
+        <v>8460</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="5">
         <v>16</v>
       </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
       <c r="C12" s="2">
         <v>9</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="D12" s="2">
+        <v>32</v>
+      </c>
+      <c r="E12" s="2">
+        <v>32</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4140</v>
+      </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G13" s="3"/>
+      <c r="A13" s="2">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2">
+        <v>32</v>
+      </c>
+      <c r="E13" s="2">
+        <v>32</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="1">
+        <v>11916</v>
+      </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>8</v>
+      </c>
       <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="C14" s="5">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2">
+        <v>32</v>
+      </c>
+      <c r="E14" s="2">
+        <v>32</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="3">
+        <v>7872</v>
+      </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>8</v>
+      </c>
       <c r="B15" s="2">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C15" s="5">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2">
+        <v>32</v>
+      </c>
+      <c r="E15" s="2">
+        <v>32</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="3">
+        <v>7284</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -709,18 +871,53 @@
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C16" s="2">
-        <v>9</v>
-      </c>
-      <c r="G16" s="3"/>
+      <c r="A16" s="2">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2">
+        <v>32</v>
+      </c>
+      <c r="E16" s="2">
+        <v>32</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="3">
+        <v>9048</v>
+      </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C17" s="2">
-        <v>10</v>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="5">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2">
+        <v>32</v>
+      </c>
+      <c r="E17" s="2">
+        <v>32</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4032</v>
       </c>
       <c r="H17" s="3"/>
       <c r="L17" s="3"/>
@@ -728,34 +925,100 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="5">
+        <v>10</v>
+      </c>
       <c r="D18" s="2">
+        <v>32</v>
+      </c>
+      <c r="E18" s="2">
+        <v>32</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D19" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="E20" s="2">
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2">
+        <v>9</v>
+      </c>
+      <c r="D19" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="E21" s="2">
-        <v>32</v>
-      </c>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C25" s="1" t="s">
+      <c r="E19" s="2">
+        <v>32</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>16</v>
+      </c>
+      <c r="B20" s="8">
+        <v>2</v>
+      </c>
+      <c r="C20" s="8">
+        <v>9</v>
+      </c>
+      <c r="D20" s="9">
+        <v>8</v>
+      </c>
+      <c r="E20" s="8">
+        <v>32</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>25</v>
       </c>
+      <c r="G20" s="10">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2">
+        <v>8</v>
+      </c>
+      <c r="E21" s="5">
+        <v>16</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/experiments/ac.xlsx
+++ b/experiments/ac.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>pix_per_cell</t>
   </si>
@@ -105,6 +105,24 @@
   </si>
   <si>
     <t>0.9831</t>
+  </si>
+  <si>
+    <t>H(LS)</t>
+  </si>
+  <si>
+    <t>0.9645</t>
+  </si>
+  <si>
+    <t>H(S)V</t>
+  </si>
+  <si>
+    <t>(L)UV</t>
+  </si>
+  <si>
+    <t>0.9398</t>
+  </si>
+  <si>
+    <t>0.9437</t>
   </si>
 </sst>
 </file>
@@ -509,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,6 +622,9 @@
       <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="H3" s="3">
+        <v>8460</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="Q3" s="3"/>
     </row>
@@ -629,6 +650,9 @@
       <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="H4" s="3">
+        <v>8460</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="P4" s="3"/>
     </row>
@@ -653,6 +677,9 @@
       </c>
       <c r="G5" s="3" t="s">
         <v>18</v>
+      </c>
+      <c r="H5" s="3">
+        <v>8460</v>
       </c>
       <c r="I5" s="1"/>
       <c r="P5" s="3"/>
@@ -679,6 +706,9 @@
       <c r="G6" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="H6" s="3">
+        <v>8460</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="P6" s="3"/>
     </row>
@@ -704,144 +734,136 @@
       <c r="G7" s="10" t="s">
         <v>14</v>
       </c>
+      <c r="H7" s="10">
+        <v>8460</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2">
+        <v>32</v>
+      </c>
+      <c r="F8" s="2">
+        <v>32</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5640</v>
+      </c>
+      <c r="I8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G9" s="4"/>
-      <c r="H9" s="3"/>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2">
+        <v>32</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2820</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2820</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2">
-        <v>32</v>
-      </c>
-      <c r="E11" s="2">
-        <v>32</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="3">
-        <v>8460</v>
-      </c>
+      <c r="G11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2">
-        <v>32</v>
-      </c>
-      <c r="E12" s="2">
-        <v>32</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="1">
-        <v>4140</v>
-      </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>8</v>
-      </c>
-      <c r="B13" s="5">
-        <v>3</v>
-      </c>
-      <c r="C13" s="2">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2">
-        <v>32</v>
-      </c>
-      <c r="E13" s="2">
-        <v>32</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="1">
-        <v>11916</v>
-      </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+    <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G13" s="4"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>8</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2</v>
-      </c>
-      <c r="C14" s="5">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2">
-        <v>32</v>
-      </c>
-      <c r="E14" s="2">
-        <v>32</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="3">
-        <v>7872</v>
-      </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="A14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -850,8 +872,8 @@
       <c r="B15" s="2">
         <v>2</v>
       </c>
-      <c r="C15" s="5">
-        <v>7</v>
+      <c r="C15" s="2">
+        <v>9</v>
       </c>
       <c r="D15" s="2">
         <v>32</v>
@@ -859,26 +881,22 @@
       <c r="E15" s="2">
         <v>32</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>22</v>
+      <c r="F15" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="G15" s="3">
-        <v>7284</v>
-      </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
+        <v>8460</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>8</v>
+      <c r="A16" s="5">
+        <v>16</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
       </c>
-      <c r="C16" s="5">
-        <v>10</v>
+      <c r="C16" s="2">
+        <v>9</v>
       </c>
       <c r="D16" s="2">
         <v>32</v>
@@ -889,8 +907,8 @@
       <c r="F16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="3">
-        <v>9048</v>
+      <c r="G16" s="1">
+        <v>4140</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -898,14 +916,14 @@
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2">
-        <v>2</v>
-      </c>
-      <c r="C17" s="5">
-        <v>8</v>
+      <c r="A17" s="2">
+        <v>8</v>
+      </c>
+      <c r="B17" s="5">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2">
+        <v>9</v>
       </c>
       <c r="D17" s="2">
         <v>32</v>
@@ -914,111 +932,219 @@
         <v>32</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G17" s="1">
-        <v>4032</v>
-      </c>
-      <c r="H17" s="3"/>
+        <v>11916</v>
+      </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="2">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="5">
+        <v>8</v>
+      </c>
+      <c r="D18" s="2">
+        <v>32</v>
+      </c>
+      <c r="E18" s="2">
+        <v>32</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="3">
+        <v>7872</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
+      <c r="C19" s="5">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2">
+        <v>32</v>
+      </c>
+      <c r="E19" s="2">
+        <v>32</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="3">
+        <v>7284</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+      <c r="C20" s="5">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2">
+        <v>32</v>
+      </c>
+      <c r="E20" s="2">
+        <v>32</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="3">
+        <v>9048</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
-        <v>2</v>
-      </c>
-      <c r="C18" s="5">
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" s="5">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2">
+        <v>32</v>
+      </c>
+      <c r="E21" s="2">
+        <v>32</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="1">
+        <v>4032</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>16</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2</v>
+      </c>
+      <c r="C22" s="5">
         <v>10</v>
       </c>
-      <c r="D18" s="2">
-        <v>32</v>
-      </c>
-      <c r="E18" s="2">
-        <v>32</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="D22" s="2">
+        <v>32</v>
+      </c>
+      <c r="E22" s="2">
+        <v>32</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G22" s="1">
         <v>4248</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
         <v>16</v>
       </c>
-      <c r="B19" s="2">
-        <v>2</v>
-      </c>
-      <c r="C19" s="2">
-        <v>9</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2">
+        <v>9</v>
+      </c>
+      <c r="D23" s="5">
         <v>16</v>
       </c>
-      <c r="E19" s="2">
-        <v>32</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="E23" s="2">
+        <v>32</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G23" s="1">
         <v>1836</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
         <v>16</v>
       </c>
-      <c r="B20" s="8">
-        <v>2</v>
-      </c>
-      <c r="C20" s="8">
-        <v>9</v>
-      </c>
-      <c r="D20" s="9">
-        <v>8</v>
-      </c>
-      <c r="E20" s="8">
-        <v>32</v>
-      </c>
-      <c r="F20" s="10" t="s">
+      <c r="B24" s="8">
+        <v>2</v>
+      </c>
+      <c r="C24" s="8">
+        <v>9</v>
+      </c>
+      <c r="D24" s="9">
+        <v>8</v>
+      </c>
+      <c r="E24" s="8">
+        <v>32</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G24" s="10">
         <v>1260</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="2">
-        <v>2</v>
-      </c>
-      <c r="C21" s="2">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2">
-        <v>8</v>
-      </c>
-      <c r="E21" s="5">
+      <c r="B25" s="2">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2">
+        <v>8</v>
+      </c>
+      <c r="E25" s="5">
         <v>16</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G25" s="3">
         <v>1212</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C25" s="1"/>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
